--- a/biology/Biochimie/Alexandre_Oparine/Alexandre_Oparine.xlsx
+++ b/biology/Biochimie/Alexandre_Oparine/Alexandre_Oparine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alexandre Ivanovitch Oparine (en russe : Александр Иванович Опарин ; ISO 9 : Aleksandr Ivanovič Oparin), né le 2 mars 1894 à Ouglitch et mort le 21 avril 1980 à Moscou, est un biochimiste soviétique, auteur d'une théorie pionnière de l'origine de la vie basée sur l'existence d'une chimie organique prébiotique (théorie qui a précédé celle de la soupe primitive)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexandre Ivanovitch Oparine (en russe : Александр Иванович Опарин ; ISO 9 : Aleksandr Ivanovič Oparin), né le 2 mars 1894 à Ouglitch et mort le 21 avril 1980 à Moscou, est un biochimiste soviétique, auteur d'une théorie pionnière de l'origine de la vie basée sur l'existence d'une chimie organique prébiotique (théorie qui a précédé celle de la soupe primitive).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Travaux de recherche</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Vers 1920, il élabore l'hypothèse qu'il y a eu dans l'atmosphère de la terre primitive un processus de synthèse de biomonomères du vivant (acides aminés, bases azotées des acides nucléiques, sucres, acides gras) à partir des éléments présents dans cette atmosphère, susceptibles de former des coacervats, sorte de gouttelettes capables de grandir et bourgeonner dans un milieu contenant les biomonomères et éléments qui leur sont nécessaires. Ils sont censés présenter une partie des caractéristiques des futures cellules vivantes.
 Cette hypothèse est publiée en 1924 à Moscou (« Proiskhozhdenie zhizni » ou  « L'Origine de la vie »). Elle est notoire comme étape importante dans la compréhension de l'apparition de la vie.
